--- a/visualization.xlsx
+++ b/visualization.xlsx
@@ -8,17 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T-HUB\EXCEL\after practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD17776-D1CE-4A53-8AC7-FD6D26C97867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D316C8-BBCA-4491-8DE5-8F666354F188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{401A399A-346C-4E7B-92B0-5617B75FCE6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{401A399A-346C-4E7B-92B0-5617B75FCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="COLUMN CHART" sheetId="1" r:id="rId1"/>
     <sheet name="BAR CHART" sheetId="2" r:id="rId2"/>
     <sheet name="LINE CHART" sheetId="3" r:id="rId3"/>
     <sheet name="PIE CHART" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Scatter Plot" sheetId="5" r:id="rId5"/>
+    <sheet name="Area chart" sheetId="6" r:id="rId6"/>
+    <sheet name="histogram" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Area chart'!$B$7:$B$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Area chart'!$C$5:$C$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$B$8:$C$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$D$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$D$8:$D$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$B$8:$C$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$D$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$D$8:$D$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$B$8:$C$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$D$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet3!$D$8:$D$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Area chart'!$C$7:$C$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Area chart'!$D$5:$D$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Area chart'!$D$7:$D$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Area chart'!$E$5:$E$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Area chart'!$E$7:$E$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">histogram!$A$6:$A$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">histogram!$B$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">histogram!$B$6:$B$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>COLUMN CHART</t>
   </si>
@@ -188,6 +212,129 @@
   <si>
     <t>MARKET SHARE</t>
   </si>
+  <si>
+    <t>SCATTER PLOT</t>
+  </si>
+  <si>
+    <t>Purpose: Show the relationship between two numerical values</t>
+  </si>
+  <si>
+    <t>Example: Analysis the relationship between exam score and exam period</t>
+  </si>
+  <si>
+    <t>Study Hours</t>
+  </si>
+  <si>
+    <t>exam marks</t>
+  </si>
+  <si>
+    <t>Area Chart</t>
+  </si>
+  <si>
+    <t>Purpose:Show how values change over time, emphasizing volume.</t>
+  </si>
+  <si>
+    <t>Example:Display the Growth and downfall of visiter in particular area</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Munnar</t>
+  </si>
+  <si>
+    <t>Ooty</t>
+  </si>
+  <si>
+    <t>januaury-April</t>
+  </si>
+  <si>
+    <t>May-August</t>
+  </si>
+  <si>
+    <t>September-december</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>purpose:Show the data distribution</t>
+  </si>
+  <si>
+    <t>example:Show  martket value of different branded cars</t>
+  </si>
+  <si>
+    <t>Grade Range</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>0 to 10</t>
+  </si>
+  <si>
+    <t>11to20</t>
+  </si>
+  <si>
+    <t>21to30</t>
+  </si>
+  <si>
+    <t>31to40</t>
+  </si>
+  <si>
+    <t>41to50</t>
+  </si>
+  <si>
+    <t>51to60</t>
+  </si>
+  <si>
+    <t>61to70</t>
+  </si>
+  <si>
+    <t>Treemap Chart</t>
+  </si>
+  <si>
+    <t>Purpose:Show the hierarchical data as Nested rectangle</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Example:Shoe the Hierarchie of Electrical gadugest and Furniture in Home Appliances</t>
+  </si>
+  <si>
+    <t>Electricals</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -359,17 +506,243 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -378,22 +751,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE285"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,7 +1178,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2443,6 +2837,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CAC4-4B18-90DD-5F560C96C635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2486,6 +2885,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CAC4-4B18-90DD-5F560C96C635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2529,6 +2933,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CAC4-4B18-90DD-5F560C96C635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2572,6 +2981,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CAC4-4B18-90DD-5F560C96C635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2615,6 +3029,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CAC4-4B18-90DD-5F560C96C635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2827,6 +3246,1161 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scatter Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scatter Plot'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exam marks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scatter Plot'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scatter Plot'!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2541-4171-A624-432EBF2B3AB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1058755887"/>
+        <c:axId val="1058759247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1058755887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058759247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1058759247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058755887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="24000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Area Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area chart'!$C$5:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>januaury-April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area chart'!$B$7:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chennai</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Munnar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ooty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area chart'!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B036-4FA1-9954-30FB2C65342E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area chart'!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May-August</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area chart'!$B$7:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chennai</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Munnar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ooty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area chart'!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B036-4FA1-9954-30FB2C65342E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area chart'!$E$5:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>September-december</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area chart'!$B$7:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chennai</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Delhi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Munnar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ooty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area chart'!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B036-4FA1-9954-30FB2C65342E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1182773792"/>
+        <c:axId val="1182790592"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1182773792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182790592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1182790592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182773792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="0070C0"/>
+        </a:gs>
+        <a:gs pos="24000">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFE285"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{AAB43179-631D-437B-944E-5033E9788822}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{03ED1A68-5C59-4AFB-8D67-F9676277FC51}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>Sales</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="11000">
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="FFE285"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+  </cx:spPr>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2955,6 +4529,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
@@ -5095,6 +6829,2183 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="411">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5264,6 +9175,254 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493DABFC-843A-B0F1-423D-60D450C41843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3764280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D274D9A-0296-DAF7-C376-0C3128B543A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22695C0-0BF0-7D85-9527-719782F64A8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4732020" y="822960"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4709160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEB67C0-5306-46AB-8C8E-13658378746D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="137160" y="1303020"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5608,19 +9767,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -5737,18 +9896,18 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -5758,12 +9917,12 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1">
@@ -5775,13 +9934,13 @@
       <c r="D8" s="1">
         <v>231</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <f>SUM(B8:D8)</f>
         <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1">
@@ -5793,13 +9952,13 @@
       <c r="D9" s="1">
         <v>432</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <f>SUM(B9:D9)</f>
         <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1">
@@ -5811,25 +9970,25 @@
       <c r="D10" s="1">
         <v>234</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <f>SUM(B10:D10)</f>
         <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>87</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>294</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <v>543</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <f>SUM(B11:D11)</f>
         <v>924</v>
       </c>
@@ -6015,50 +10174,50 @@
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6070,12 +10229,412 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051091A3-70F5-4220-9583-BAD7A3C1BCBE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66ED1FD-7105-4F91-A265-853C27026777}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="26"/>
+      <c r="C6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19">
+        <v>7890</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="17">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1256</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9876</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3456</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9234</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9367</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2345</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FCC44-5939-4158-A014-B437682143BA}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A5:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662040E9-EAA9-480F-AD5A-7F6AF6C91EE1}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>